--- a/SMART_PHONES_SALES.xlsx
+++ b/SMART_PHONES_SALES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85A95F51-1B7A-4113-B533-C753C1CC9D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18505C2C-950E-4E8C-8FEE-657C3D7B6611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{1216AE7E-0D0F-477D-80F3-C3320F6C1D24}"/>
   </bookViews>
@@ -7321,7 +7321,7 @@
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
